--- a/refs/heads/rc2-umbrella/StructureDefinition-svc-immunization.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-svc-immunization.xlsx
@@ -858,7 +858,7 @@
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-patient)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-patient)
 </t>
   </si>
   <si>
@@ -1209,7 +1209,7 @@
     <t>Immunization.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-practitioner|https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-organization)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-practitioner|https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-organization)
 </t>
   </si>
   <si>
@@ -1576,7 +1576,7 @@
     <t>ProtocolApplied_Authority</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-organization)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-organization)
 </t>
   </si>
   <si>

--- a/refs/heads/rc2-umbrella/StructureDefinition-svc-immunization.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-svc-immunization.xlsx
@@ -701,7 +701,7 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>SVC_Vaccine</t>
+    <t>svcVaccine</t>
   </si>
   <si>
     <t>Immunization.vaccineCode.coding.id</t>
@@ -1573,7 +1573,7 @@
     <t>The recommended number of doses to achieve immunity.</t>
   </si>
   <si>
-    <t>ProtocolApplied_Authority</t>
+    <t>protocolAppliedAuthority</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-organization)
@@ -1739,7 +1739,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="45.77734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.9375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/refs/heads/rc2-umbrella/StructureDefinition-svc-immunization.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-svc-immunization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="510">
   <si>
     <t>Path</t>
   </si>
@@ -1581,6 +1581,10 @@
   </si>
   <si>
     <t>https://who-int.github.io/svc/refs/heads/rc2/ValueSet/who-svc-vaccinable-conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
   </si>
 </sst>
 </file>
@@ -12206,7 +12210,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>498</v>
       </c>
@@ -12222,7 +12226,7 @@
         <v>51</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>41</v>
@@ -12231,7 +12235,7 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>500</v>
@@ -12320,7 +12324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>503</v>
       </c>
@@ -12336,7 +12340,7 @@
         <v>51</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>41</v>
@@ -12345,7 +12349,7 @@
         <v>41</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>504</v>
